--- a/2. 연구사업(2023년)/6. 분석결과/M-index/M-index.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/M-index/M-index.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t>sample</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,10 @@
   </si>
   <si>
     <t>SiO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -401,7 +405,7 @@
     <col min="18" max="18" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +472,11 @@
       <c r="X1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -550,8 +557,12 @@
         <f t="shared" si="1"/>
         <v>0.58032724964814064</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z2" s="1">
+        <f>SUM(R2,T2,X2)</f>
+        <v>-1.6429722419062538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -632,8 +643,12 @@
         <f t="shared" si="1"/>
         <v>-1.1277929389973336</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z3" s="1">
+        <f t="shared" ref="Z3:Z14" si="4">SUM(R3,T3,X3)</f>
+        <v>-3.4763143650311439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -714,8 +729,12 @@
         <f t="shared" si="1"/>
         <v>-2.1130968960538996</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z4" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.937030433475551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -796,8 +815,12 @@
         <f t="shared" si="1"/>
         <v>-0.31518522663155268</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z5" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.0356041730550309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -878,8 +901,12 @@
         <f t="shared" si="1"/>
         <v>-1.3473574297660138</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z6" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.4685142908533608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -960,8 +987,12 @@
         <f t="shared" si="1"/>
         <v>0.77664468743364079</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z7" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8192385169668752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1042,8 +1073,12 @@
         <f t="shared" si="1"/>
         <v>0.98830009982627598</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z8" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7239578466641072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1124,8 +1159,12 @@
         <f t="shared" si="1"/>
         <v>0.71607892257866879</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z9" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8661599939425737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1206,8 +1245,12 @@
         <f t="shared" si="1"/>
         <v>-1.4549899703511454E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z10" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.35427968971513746</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1288,8 +1331,12 @@
         <f t="shared" si="1"/>
         <v>1.118454624064114</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z11" s="1">
+        <f t="shared" si="4"/>
+        <v>0.88735406755494106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1370,8 +1417,12 @@
         <f t="shared" si="1"/>
         <v>0.28298332608376808</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z12" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2468470241596337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1452,8 +1503,12 @@
         <f t="shared" si="1"/>
         <v>0.71947856843713953</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z13" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5518355003653204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1534,34 +1589,38 @@
         <f t="shared" si="1"/>
         <v>-0.26428508691944474</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z14" s="1">
+        <f t="shared" si="4"/>
+        <v>0.81932224438301227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="J16">
         <f>AVERAGE(J2:J14)</f>
         <v>1.0676851878660996</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:P16" si="4">AVERAGE(K2:K14)</f>
+        <f t="shared" ref="K16:P16" si="5">AVERAGE(K2:K14)</f>
         <v>0.41682293755661431</v>
       </c>
       <c r="L16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.48156551364988592</v>
       </c>
       <c r="M16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.90914734447801193</v>
       </c>
       <c r="N16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1963432641471146</v>
       </c>
       <c r="O16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1820917328816811</v>
       </c>
       <c r="P16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2438077733157948</v>
       </c>
     </row>
@@ -1571,27 +1630,27 @@
         <v>0.30647969574853207</v>
       </c>
       <c r="K17">
-        <f t="shared" ref="K17:P17" si="5">STDEV(K2:K14)</f>
+        <f t="shared" ref="K17:P17" si="6">STDEV(K2:K14)</f>
         <v>0.30995439625674093</v>
       </c>
       <c r="L17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.34968204777723505</v>
       </c>
       <c r="M17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.19195649168644235</v>
       </c>
       <c r="N17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35897983423932289</v>
       </c>
       <c r="O17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.26739911655976156</v>
       </c>
       <c r="P17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56902979243546203</v>
       </c>
     </row>
@@ -1601,387 +1660,387 @@
         <v>1.1505720275988207</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="K20:P32" si="6">LN(C2)</f>
+        <f t="shared" ref="K20:P32" si="7">LN(C2)</f>
         <v>0.94778939893352609</v>
       </c>
       <c r="L20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.81093021621632877</v>
       </c>
       <c r="M20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9572739077056285</v>
       </c>
       <c r="N20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6094379124341003</v>
       </c>
       <c r="O20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.4336133554004498</v>
       </c>
       <c r="P20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.6243409329763652</v>
       </c>
     </row>
     <row r="21" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J21">
-        <f t="shared" ref="J21:J32" si="7">LN(B3)</f>
+        <f t="shared" ref="J21:J32" si="8">LN(B3)</f>
         <v>1.4906543764441336</v>
       </c>
       <c r="K21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.44468582126144574</v>
       </c>
       <c r="L21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.32208349916911322</v>
       </c>
       <c r="M21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6233408176030919</v>
       </c>
       <c r="N21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1633230256605378</v>
       </c>
       <c r="O21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.4680995314716192</v>
       </c>
       <c r="P21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
     <row r="22" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2955604780570811</v>
       </c>
       <c r="K22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.77932487680099771</v>
       </c>
       <c r="L22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.63127177684185776</v>
       </c>
       <c r="M22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5769147207285403</v>
       </c>
       <c r="N22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5877640352277083</v>
       </c>
       <c r="O22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.379546134130174</v>
       </c>
       <c r="P22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.5310179804324935E-2</v>
       </c>
     </row>
     <row r="23" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9154509415706047</v>
       </c>
       <c r="K23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.6961041136128394E-2</v>
       </c>
       <c r="L23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.46203545959655867</v>
       </c>
       <c r="M23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9544450515051506</v>
       </c>
       <c r="N23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5416019934645457</v>
       </c>
       <c r="O23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2617630984737906</v>
       </c>
       <c r="P23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.451005098112319</v>
       </c>
     </row>
     <row r="24" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.6340447877917144</v>
       </c>
       <c r="K24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.53062825106217038</v>
       </c>
       <c r="L24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.81093021621632877</v>
       </c>
       <c r="M24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.086913556518537</v>
       </c>
       <c r="N24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.068052935133617</v>
       </c>
       <c r="O24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7911651078127169</v>
       </c>
       <c r="P24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="25" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4756977107026903</v>
       </c>
       <c r="K25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4350845252893227</v>
       </c>
       <c r="L25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9286186519452522</v>
       </c>
       <c r="M25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5802168295923251</v>
       </c>
       <c r="N25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0149030205422647</v>
       </c>
       <c r="O25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.91235066461494</v>
       </c>
       <c r="P25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.8815637979434374</v>
       </c>
     </row>
     <row r="26" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4553061800117097</v>
       </c>
       <c r="K26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.58778666490211906</v>
       </c>
       <c r="L26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7047480922384253</v>
       </c>
       <c r="M26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.3025850929940459</v>
       </c>
       <c r="N26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.884800712846709</v>
       </c>
       <c r="O26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7343675094195836</v>
       </c>
       <c r="P26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.1588830833596715</v>
       </c>
     </row>
     <row r="27" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.8707357833793057</v>
       </c>
       <c r="K27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.87962674750256364</v>
       </c>
       <c r="L27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5644405465033646</v>
       </c>
       <c r="M27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8718021769015913</v>
       </c>
       <c r="N27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.9454577815143836</v>
       </c>
       <c r="O27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5572273113676265</v>
       </c>
       <c r="P27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.8022081394209395</v>
       </c>
     </row>
     <row r="28" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3804716316511167</v>
       </c>
       <c r="K28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.19885085874516517</v>
       </c>
       <c r="L28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.9242589015233319</v>
       </c>
       <c r="M28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2905125117597764</v>
       </c>
       <c r="N28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.7495040759303713</v>
       </c>
       <c r="O28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.4423470353692043</v>
       </c>
       <c r="P28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8449093838194073</v>
       </c>
     </row>
     <row r="29" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1792868766495519</v>
       </c>
       <c r="K29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5748464676644813</v>
       </c>
       <c r="L29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2412685890696329</v>
       </c>
       <c r="M29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0281482472922852</v>
       </c>
       <c r="N29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2527629684953681</v>
       </c>
       <c r="O29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1282317058492679</v>
       </c>
       <c r="P29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.3294166844015844</v>
       </c>
     </row>
     <row r="30" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2887749522478678</v>
       </c>
       <c r="K30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.430311246536665</v>
       </c>
       <c r="L30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5478814489493886</v>
       </c>
       <c r="M30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2252554318322399</v>
       </c>
       <c r="N30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.6375861597263857</v>
       </c>
       <c r="O30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.6402142821326553</v>
       </c>
       <c r="P30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2347491740244907</v>
       </c>
     </row>
     <row r="31" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0828269804049246</v>
       </c>
       <c r="K31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.81977983149331135</v>
       </c>
       <c r="L31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8718021769015913</v>
       </c>
       <c r="M31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0228711901914416</v>
       </c>
       <c r="N31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1570004211501135</v>
       </c>
       <c r="O31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.3125354238472138</v>
       </c>
       <c r="P31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.8066624897703196</v>
       </c>
     </row>
     <row r="32" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7402852421738362</v>
       </c>
       <c r="K32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7713379403381286</v>
       </c>
       <c r="L32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.51879379341516751</v>
       </c>
       <c r="M32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6937790608678513</v>
       </c>
       <c r="N32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1986731175506815</v>
       </c>
       <c r="O32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.3228072750139104</v>
       </c>
       <c r="P32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5176964726109912</v>
       </c>
     </row>

--- a/2. 연구사업(2023년)/6. 분석결과/M-index/M-index.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/M-index/M-index.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\2. 연구사업(2023년)\6. 분석결과\M-index\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\M-index\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
